--- a/data/tabela_5938_PIB_estadual.xlsx
+++ b/data/tabela_5938_PIB_estadual.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\gdrive\projects\masterthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837780C6-E6CE-4EB7-AEDE-E405D96677B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9990AAF-B720-4E2E-A3EA-097FBAD4734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{391B065B-0CC9-4D3F-AED5-9B5B7340DBC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tabela_5938_PIB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tabela_5938_PIB!$A$1:$F$561</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="60">
   <si>
     <t>ano</t>
   </si>
@@ -127,22 +132,19 @@
     <t>MG</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>RS</t>
   </si>
   <si>
     <t>PR</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
     <t>BA</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
   <si>
     <t>GO</t>
@@ -158,6 +160,9 @@
   </si>
   <si>
     <t>MT</t>
+  </si>
+  <si>
+    <t>ES</t>
   </si>
   <si>
     <t>AM</t>
@@ -190,13 +195,19 @@
     <t>TO</t>
   </si>
   <si>
+    <t>AP</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
     <t>RR</t>
   </si>
   <si>
-    <t>AP</t>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>PIB</t>
   </si>
 </sst>
 </file>
@@ -207,16 +218,8 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -231,18 +234,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,27 +253,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,7 +279,7 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,9 +292,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,44 +302,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -372,14 +367,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -407,9 +419,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,6710 +447,6599 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B762B2A5-6653-4EF2-B957-F21E4881326D}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C505"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C494" sqref="C494"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="5"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2002</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1488787276</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>7467630</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2002</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2971301</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2002</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>22093338</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2392033</v>
       </c>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2002</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>26482159</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2002</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>3173343</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2002</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>5322563</v>
       </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2002</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>15924003</v>
       </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2002</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>7122635</v>
       </c>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2002</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>28718840</v>
       </c>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2002</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>13566803</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>2002</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>12747021</v>
       </c>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>2002</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>36056032</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>2002</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>11536853</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>2002</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>10332494</v>
       </c>
     </row>
-    <row r="18" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>2002</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>58842976</v>
       </c>
     </row>
-    <row r="19" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>2002</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>124071066</v>
       </c>
     </row>
-    <row r="20" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>2002</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>27048997</v>
       </c>
     </row>
-    <row r="21" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>2002</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>184310915</v>
       </c>
     </row>
-    <row r="22" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>2002</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>518878815</v>
       </c>
     </row>
-    <row r="23" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>2002</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>88235715</v>
       </c>
     </row>
-    <row r="24" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>2002</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>54481893</v>
       </c>
     </row>
-    <row r="25" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>2002</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>98847211</v>
       </c>
     </row>
-    <row r="26" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>2002</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>16440424</v>
       </c>
     </row>
-    <row r="27" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>2002</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>19190653</v>
       </c>
     </row>
-    <row r="28" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>2002</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>38629365</v>
       </c>
     </row>
-    <row r="29" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>2002</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>53902200</v>
       </c>
     </row>
-    <row r="30" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>2003</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1717950386</v>
       </c>
     </row>
-    <row r="31" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>2003</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>9425010</v>
       </c>
     </row>
-    <row r="32" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>2003</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>3377234</v>
       </c>
     </row>
-    <row r="33" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>2003</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>25862134</v>
       </c>
     </row>
-    <row r="34" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>2003</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>2594081</v>
       </c>
     </row>
-    <row r="35" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>2003</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>30270152</v>
       </c>
     </row>
-    <row r="36" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>2003</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>3413195</v>
       </c>
     </row>
-    <row r="37" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>2003</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>6612339</v>
       </c>
     </row>
-    <row r="38" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>2003</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>19502900</v>
       </c>
     </row>
-    <row r="39" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>2003</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>8414901</v>
       </c>
     </row>
-    <row r="40" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>2003</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>32687418</v>
       </c>
     </row>
-    <row r="41" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>2003</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>14865441</v>
       </c>
     </row>
-    <row r="42" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>2003</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>14737920</v>
       </c>
     </row>
-    <row r="43" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>2003</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>38815845</v>
       </c>
     </row>
-    <row r="44" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>2003</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>12624030</v>
       </c>
     </row>
-    <row r="45" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>2003</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>11749574</v>
       </c>
     </row>
-    <row r="46" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>2003</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>67174227</v>
       </c>
     </row>
-    <row r="47" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>2003</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>144189094</v>
       </c>
     </row>
-    <row r="48" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>2003</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>31519106</v>
       </c>
     </row>
-    <row r="49" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>2003</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>202640789</v>
       </c>
     </row>
-    <row r="50" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>2003</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>591454032</v>
       </c>
     </row>
-    <row r="51" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>2003</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>110039414</v>
       </c>
     </row>
-    <row r="52" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>2003</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>64098475</v>
       </c>
     </row>
-    <row r="53" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>2003</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>119325399</v>
       </c>
     </row>
-    <row r="54" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>2003</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>21846566</v>
       </c>
     </row>
-    <row r="55" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>2003</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>26697097</v>
       </c>
     </row>
-    <row r="56" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>2003</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>45557889</v>
       </c>
     </row>
-    <row r="57" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>2003</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>58456124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>2004</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>1957751224</v>
       </c>
     </row>
-    <row r="59" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>2004</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>11004641</v>
       </c>
     </row>
-    <row r="60" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>2004</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>3784003</v>
       </c>
     </row>
-    <row r="61" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>2004</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>31090696</v>
       </c>
     </row>
-    <row r="62" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>2004</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>2822757</v>
       </c>
     </row>
-    <row r="63" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>2004</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>37272726</v>
       </c>
     </row>
-    <row r="64" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>2004</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>3824740</v>
       </c>
     </row>
-    <row r="65" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>2004</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>7251580</v>
       </c>
     </row>
-    <row r="66" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>2004</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>22127132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>2004</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>9406461</v>
       </c>
     </row>
-    <row r="68" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>2004</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>36890816</v>
       </c>
     </row>
-    <row r="69" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>2004</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>17252398</v>
       </c>
     </row>
-    <row r="70" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>2004</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>15757832</v>
       </c>
     </row>
-    <row r="71" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>2004</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>44982684</v>
       </c>
     </row>
-    <row r="72" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>2004</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>14044907</v>
       </c>
     </row>
-    <row r="73" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>2004</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>13336258</v>
       </c>
     </row>
-    <row r="74" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>2004</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>77931725</v>
       </c>
     </row>
-    <row r="75" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>2004</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>171870934</v>
       </c>
     </row>
-    <row r="76" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>2004</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>39732638</v>
       </c>
     </row>
-    <row r="77" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>2004</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>241206738</v>
       </c>
     </row>
-    <row r="78" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>2004</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>652955558</v>
       </c>
     </row>
-    <row r="79" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>2004</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>123451530</v>
       </c>
     </row>
-    <row r="80" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>2004</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>73618966</v>
       </c>
     </row>
-    <row r="81" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>2004</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>131192206</v>
       </c>
     </row>
-    <row r="82" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>2004</v>
       </c>
       <c r="B82" t="s">
         <v>27</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>23372308</v>
       </c>
     </row>
-    <row r="83" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>2004</v>
       </c>
       <c r="B83" t="s">
         <v>28</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>33388670</v>
       </c>
     </row>
-    <row r="84" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>2004</v>
       </c>
       <c r="B84" t="s">
         <v>29</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>51103815</v>
       </c>
     </row>
-    <row r="85" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>2004</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>67076505</v>
       </c>
     </row>
-    <row r="86" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>2005</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>2170584503</v>
       </c>
     </row>
-    <row r="87" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>2005</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>12511821</v>
       </c>
     </row>
-    <row r="88" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>2005</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>4300581</v>
       </c>
     </row>
-    <row r="89" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>2005</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>33980877</v>
       </c>
     </row>
-    <row r="90" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>2005</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>3193430</v>
       </c>
     </row>
-    <row r="91" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>2005</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>40522893</v>
       </c>
     </row>
-    <row r="92" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>2005</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>4306410</v>
       </c>
     </row>
-    <row r="93" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>2005</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>7707340</v>
       </c>
     </row>
-    <row r="94" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <v>2005</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>25104209</v>
       </c>
     </row>
-    <row r="95" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>2005</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>10711834</v>
       </c>
     </row>
-    <row r="96" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>2005</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>41059459</v>
       </c>
     </row>
-    <row r="97" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>2005</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>19966918</v>
       </c>
     </row>
-    <row r="98" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>2005</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>17557226</v>
       </c>
     </row>
-    <row r="99" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>2005</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>50240325</v>
       </c>
     </row>
-    <row r="100" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>2005</v>
       </c>
       <c r="B100" t="s">
         <v>17</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>15484521</v>
       </c>
     </row>
-    <row r="101" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>2005</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>14430118</v>
       </c>
     </row>
-    <row r="102" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>2005</v>
       </c>
       <c r="B102" t="s">
         <v>19</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>88291883</v>
       </c>
     </row>
-    <row r="103" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <v>2005</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>188364436</v>
       </c>
     </row>
-    <row r="104" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>2005</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>47020588</v>
       </c>
     </row>
-    <row r="105" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <v>2005</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>269830061</v>
       </c>
     </row>
-    <row r="106" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>2005</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>743042944</v>
       </c>
     </row>
-    <row r="107" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>2005</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>127464507</v>
       </c>
     </row>
-    <row r="108" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
         <v>2005</v>
       </c>
       <c r="B108" t="s">
         <v>25</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>81549244</v>
       </c>
     </row>
-    <row r="109" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>2005</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>136362769</v>
       </c>
     </row>
-    <row r="110" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>2005</v>
       </c>
       <c r="B110" t="s">
         <v>27</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>23725258</v>
       </c>
     </row>
-    <row r="111" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <v>2005</v>
       </c>
       <c r="B111" t="s">
         <v>28</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>34257055</v>
       </c>
     </row>
-    <row r="112" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>2005</v>
       </c>
       <c r="B112" t="s">
         <v>29</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>53865113</v>
       </c>
     </row>
-    <row r="113" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
         <v>2005</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>75732681</v>
       </c>
     </row>
-    <row r="114" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
         <v>2006</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>2409449916</v>
       </c>
     </row>
-    <row r="115" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
         <v>2006</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>13054713</v>
       </c>
     </row>
-    <row r="116" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>2006</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>4661807</v>
       </c>
     </row>
-    <row r="117" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>2006</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>39933213</v>
       </c>
     </row>
-    <row r="118" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
         <v>2006</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>3802452</v>
       </c>
     </row>
-    <row r="119" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>2006</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>45983027</v>
       </c>
     </row>
-    <row r="120" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>2006</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>5280822</v>
       </c>
     </row>
-    <row r="121" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>2006</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>8655613</v>
       </c>
     </row>
-    <row r="122" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
         <v>2006</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>29710643</v>
       </c>
     </row>
-    <row r="123" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
         <v>2006</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>13360478</v>
       </c>
     </row>
-    <row r="124" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
         <v>2006</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>46500321</v>
       </c>
     </row>
-    <row r="125" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
         <v>2006</v>
       </c>
       <c r="B125" t="s">
         <v>14</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>22890124</v>
       </c>
     </row>
-    <row r="126" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
         <v>2006</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>20838016</v>
       </c>
     </row>
-    <row r="127" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
         <v>2006</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>55485293</v>
       </c>
     </row>
-    <row r="128" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
         <v>2006</v>
       </c>
       <c r="B128" t="s">
         <v>17</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>17395671</v>
       </c>
     </row>
-    <row r="129" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
         <v>2006</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>16419798</v>
       </c>
     </row>
-    <row r="130" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
         <v>2006</v>
       </c>
       <c r="B130" t="s">
         <v>19</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>95347802</v>
       </c>
     </row>
-    <row r="131" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
         <v>2006</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>212659547</v>
       </c>
     </row>
-    <row r="132" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
         <v>2006</v>
       </c>
       <c r="B132" t="s">
         <v>21</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>53463868</v>
       </c>
     </row>
-    <row r="133" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
         <v>2006</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>299738183</v>
       </c>
     </row>
-    <row r="134" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
         <v>2006</v>
       </c>
       <c r="B134" t="s">
         <v>23</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>824529299</v>
       </c>
     </row>
-    <row r="135" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
         <v>2006</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>137648311</v>
       </c>
     </row>
-    <row r="136" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
         <v>2006</v>
       </c>
       <c r="B136" t="s">
         <v>25</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>91063449</v>
       </c>
     </row>
-    <row r="137" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
         <v>2006</v>
       </c>
       <c r="B137" t="s">
         <v>26</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>147622599</v>
       </c>
     </row>
-    <row r="138" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
         <v>2006</v>
       </c>
       <c r="B138" t="s">
         <v>27</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>26667894</v>
       </c>
     </row>
-    <row r="139" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
         <v>2006</v>
       </c>
       <c r="B139" t="s">
         <v>28</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>30700165</v>
       </c>
     </row>
-    <row r="140" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
         <v>2006</v>
       </c>
       <c r="B140" t="s">
         <v>29</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>61375403</v>
       </c>
     </row>
-    <row r="141" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
         <v>2006</v>
       </c>
       <c r="B141" t="s">
         <v>30</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>84661406</v>
       </c>
     </row>
-    <row r="142" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
         <v>2007</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>2720262951</v>
       </c>
     </row>
-    <row r="143" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
         <v>2007</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>14438376</v>
       </c>
     </row>
-    <row r="144" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
         <v>2007</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>5458172</v>
       </c>
     </row>
-    <row r="145" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
         <v>2007</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>43479773</v>
       </c>
     </row>
-    <row r="146" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
         <v>2007</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>4203302</v>
       </c>
     </row>
-    <row r="147" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
         <v>2007</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>51846876</v>
       </c>
     </row>
-    <row r="148" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
         <v>2007</v>
       </c>
       <c r="B148" t="s">
         <v>9</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>6012523</v>
       </c>
     </row>
-    <row r="149" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
         <v>2007</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>10192844</v>
       </c>
     </row>
-    <row r="150" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
         <v>2007</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>30730866</v>
       </c>
     </row>
-    <row r="151" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
         <v>2007</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>13736085</v>
       </c>
     </row>
-    <row r="152" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
         <v>2007</v>
       </c>
       <c r="B152" t="s">
         <v>13</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>50818749</v>
       </c>
     </row>
-    <row r="153" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
         <v>2007</v>
       </c>
       <c r="B153" t="s">
         <v>14</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>26318259</v>
       </c>
     </row>
-    <row r="154" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
         <v>2007</v>
       </c>
       <c r="B154" t="s">
         <v>15</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>22909811</v>
       </c>
     </row>
-    <row r="155" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
         <v>2007</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>62459325</v>
       </c>
     </row>
-    <row r="156" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
         <v>2007</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>19871266</v>
       </c>
     </row>
-    <row r="157" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
         <v>2007</v>
       </c>
       <c r="B157" t="s">
         <v>18</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>18218450</v>
       </c>
     </row>
-    <row r="158" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
         <v>2007</v>
       </c>
       <c r="B158" t="s">
         <v>19</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>109329528</v>
       </c>
     </row>
-    <row r="159" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
         <v>2007</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>240355239</v>
       </c>
     </row>
-    <row r="160" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
         <v>2007</v>
       </c>
       <c r="B160" t="s">
         <v>21</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>60658395</v>
       </c>
     </row>
-    <row r="161" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
         <v>2007</v>
       </c>
       <c r="B161" t="s">
         <v>22</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>323698286</v>
       </c>
     </row>
-    <row r="162" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
         <v>2007</v>
       </c>
       <c r="B162" t="s">
         <v>23</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>935653180</v>
       </c>
     </row>
-    <row r="163" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
         <v>2007</v>
       </c>
       <c r="B163" t="s">
         <v>24</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>165208891</v>
       </c>
     </row>
-    <row r="164" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
         <v>2007</v>
       </c>
       <c r="B164" t="s">
         <v>25</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>103728092</v>
       </c>
     </row>
-    <row r="165" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
         <v>2007</v>
       </c>
       <c r="B165" t="s">
         <v>26</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>168009752</v>
       </c>
     </row>
-    <row r="166" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
         <v>2007</v>
       </c>
       <c r="B166" t="s">
         <v>27</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>30084765</v>
       </c>
     </row>
-    <row r="167" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
         <v>2007</v>
       </c>
       <c r="B167" t="s">
         <v>28</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>38027578</v>
       </c>
     </row>
-    <row r="168" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
         <v>2007</v>
       </c>
       <c r="B168" t="s">
         <v>29</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>71410568</v>
       </c>
     </row>
-    <row r="169" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
         <v>2007</v>
       </c>
       <c r="B169" t="s">
         <v>30</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>93404001</v>
       </c>
     </row>
-    <row r="170" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
         <v>2008</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>3109803097</v>
       </c>
     </row>
-    <row r="171" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
         <v>2008</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>17285542</v>
       </c>
     </row>
-    <row r="172" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
         <v>2008</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>6410255</v>
       </c>
     </row>
-    <row r="173" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
         <v>2008</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>48115265</v>
       </c>
     </row>
-    <row r="174" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
         <v>2008</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>4841862</v>
       </c>
     </row>
-    <row r="175" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
         <v>2008</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>60956978</v>
       </c>
     </row>
-    <row r="176" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
         <v>2008</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>6950413</v>
       </c>
     </row>
-    <row r="177" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
         <v>2008</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>12116393</v>
       </c>
     </row>
-    <row r="178" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
         <v>2008</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>37932402</v>
       </c>
     </row>
-    <row r="179" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
         <v>2008</v>
       </c>
       <c r="B179" t="s">
         <v>12</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>16203340</v>
       </c>
     </row>
-    <row r="180" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
         <v>2008</v>
       </c>
       <c r="B180" t="s">
         <v>13</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>60415574</v>
       </c>
     </row>
-    <row r="181" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
         <v>2008</v>
       </c>
       <c r="B181" t="s">
         <v>14</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>28898860</v>
       </c>
     </row>
-    <row r="182" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
         <v>2008</v>
       </c>
       <c r="B182" t="s">
         <v>15</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>26889573</v>
       </c>
     </row>
-    <row r="183" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
         <v>2008</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>70413939</v>
       </c>
     </row>
-    <row r="184" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
         <v>2008</v>
       </c>
       <c r="B184" t="s">
         <v>17</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>22262295</v>
       </c>
     </row>
-    <row r="185" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
         <v>2008</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>21418378</v>
       </c>
     </row>
-    <row r="186" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
         <v>2008</v>
       </c>
       <c r="B186" t="s">
         <v>19</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>121667455</v>
       </c>
     </row>
-    <row r="187" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
         <v>2008</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>278607619</v>
       </c>
     </row>
-    <row r="188" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
         <v>2008</v>
       </c>
       <c r="B188" t="s">
         <v>21</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>72091158</v>
       </c>
     </row>
-    <row r="189" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
         <v>2008</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>378285800</v>
       </c>
     </row>
-    <row r="190" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
         <v>2008</v>
       </c>
       <c r="B190" t="s">
         <v>23</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>1042510168</v>
       </c>
     </row>
-    <row r="191" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
         <v>2008</v>
       </c>
       <c r="B191" t="s">
         <v>24</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>185683859</v>
       </c>
     </row>
-    <row r="192" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
         <v>2008</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>121477258</v>
       </c>
     </row>
-    <row r="193" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
         <v>2008</v>
       </c>
       <c r="B193" t="s">
         <v>26</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>190229822</v>
       </c>
     </row>
-    <row r="194" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
         <v>2008</v>
       </c>
       <c r="B194" t="s">
         <v>27</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>36219263</v>
       </c>
     </row>
-    <row r="195" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
         <v>2008</v>
       </c>
       <c r="B195" t="s">
         <v>28</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>49202505</v>
       </c>
     </row>
-    <row r="196" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
         <v>2008</v>
       </c>
       <c r="B196" t="s">
         <v>29</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>82417564</v>
       </c>
     </row>
-    <row r="197" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
         <v>2008</v>
       </c>
       <c r="B197" t="s">
         <v>30</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>110299557</v>
       </c>
     </row>
-    <row r="198" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
         <v>2009</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>3333039339</v>
       </c>
     </row>
-    <row r="199" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
         <v>2009</v>
       </c>
       <c r="B199" t="s">
         <v>4</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>19725010</v>
       </c>
     </row>
-    <row r="200" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
         <v>2009</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>7407821</v>
       </c>
     </row>
-    <row r="201" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
         <v>2009</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>50559840</v>
       </c>
     </row>
-    <row r="202" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
         <v>2009</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>5671975</v>
       </c>
     </row>
-    <row r="203" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
         <v>2009</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>61665096</v>
       </c>
     </row>
-    <row r="204" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
         <v>2009</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>7490656</v>
       </c>
     </row>
-    <row r="205" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
         <v>2009</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>13689804</v>
       </c>
     </row>
-    <row r="206" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
         <v>2009</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>40994571</v>
       </c>
     </row>
-    <row r="207" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
         <v>2009</v>
       </c>
       <c r="B207" t="s">
         <v>12</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>18946449</v>
       </c>
     </row>
-    <row r="208" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
         <v>2009</v>
       </c>
       <c r="B208" t="s">
         <v>13</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>67199958</v>
       </c>
     </row>
-    <row r="209" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
         <v>2009</v>
       </c>
       <c r="B209" t="s">
         <v>14</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>30941054</v>
       </c>
     </row>
-    <row r="210" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
         <v>2009</v>
       </c>
       <c r="B210" t="s">
         <v>15</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>30230406</v>
       </c>
     </row>
-    <row r="211" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
         <v>2009</v>
       </c>
       <c r="B211" t="s">
         <v>16</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>79760958</v>
       </c>
     </row>
-    <row r="212" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
         <v>2009</v>
       </c>
       <c r="B212" t="s">
         <v>17</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>24182388</v>
       </c>
     </row>
-    <row r="213" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
         <v>2009</v>
       </c>
       <c r="B213" t="s">
         <v>18</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>21707243</v>
       </c>
     </row>
-    <row r="214" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
         <v>2009</v>
       </c>
       <c r="B214" t="s">
         <v>19</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>137942481</v>
       </c>
     </row>
-    <row r="215" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
         <v>2009</v>
       </c>
       <c r="B215" t="s">
         <v>20</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>287443848</v>
       </c>
     </row>
-    <row r="216" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
         <v>2009</v>
       </c>
       <c r="B216" t="s">
         <v>21</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>69215361</v>
       </c>
     </row>
-    <row r="217" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
         <v>2009</v>
       </c>
       <c r="B217" t="s">
         <v>22</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>391650854</v>
       </c>
     </row>
-    <row r="218" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
         <v>2009</v>
       </c>
       <c r="B218" t="s">
         <v>23</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>1127093826</v>
       </c>
     </row>
-    <row r="219" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
         <v>2009</v>
       </c>
       <c r="B219" t="s">
         <v>24</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>196675612</v>
       </c>
     </row>
-    <row r="220" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
         <v>2009</v>
       </c>
       <c r="B220" t="s">
         <v>25</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>129098535</v>
       </c>
     </row>
-    <row r="221" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
         <v>2009</v>
       </c>
       <c r="B221" t="s">
         <v>26</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>204344940</v>
       </c>
     </row>
-    <row r="222" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
         <v>2009</v>
       </c>
       <c r="B222" t="s">
         <v>27</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>39517742</v>
       </c>
     </row>
-    <row r="223" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
         <v>2009</v>
       </c>
       <c r="B223" t="s">
         <v>28</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>52693417</v>
       </c>
     </row>
-    <row r="224" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
         <v>2009</v>
       </c>
       <c r="B224" t="s">
         <v>29</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>92865743</v>
       </c>
     </row>
-    <row r="225" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
         <v>2009</v>
       </c>
       <c r="B225" t="s">
         <v>30</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>124323753</v>
       </c>
     </row>
-    <row r="226" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
         <v>2010</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>3885847000</v>
       </c>
     </row>
-    <row r="227" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
         <v>2010</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>23907887</v>
       </c>
     </row>
-    <row r="228" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
         <v>2010</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>8342356</v>
       </c>
     </row>
-    <row r="229" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
         <v>2010</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>60877123</v>
       </c>
     </row>
-    <row r="230" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
         <v>2010</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>6639150</v>
       </c>
     </row>
-    <row r="231" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
         <v>2010</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>82684518</v>
       </c>
     </row>
-    <row r="232" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
         <v>2010</v>
       </c>
       <c r="B232" t="s">
         <v>9</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>8237795</v>
       </c>
     </row>
-    <row r="233" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
         <v>2010</v>
       </c>
       <c r="B233" t="s">
         <v>10</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>16404816</v>
       </c>
     </row>
-    <row r="234" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
         <v>2010</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>46309633</v>
       </c>
     </row>
-    <row r="235" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
         <v>2010</v>
       </c>
       <c r="B235" t="s">
         <v>12</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>22269149</v>
       </c>
     </row>
-    <row r="236" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
         <v>2010</v>
       </c>
       <c r="B236" t="s">
         <v>13</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>79336299</v>
       </c>
     </row>
-    <row r="237" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
         <v>2010</v>
       </c>
       <c r="B237" t="s">
         <v>14</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>36184502</v>
       </c>
     </row>
-    <row r="238" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
         <v>2010</v>
       </c>
       <c r="B238" t="s">
         <v>15</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>33522492</v>
       </c>
     </row>
-    <row r="239" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
         <v>2010</v>
       </c>
       <c r="B239" t="s">
         <v>16</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>97189760</v>
       </c>
     </row>
-    <row r="240" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
         <v>2010</v>
       </c>
       <c r="B240" t="s">
         <v>17</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>27133038</v>
       </c>
     </row>
-    <row r="241" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
         <v>2010</v>
       </c>
       <c r="B241" t="s">
         <v>18</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>26404893</v>
       </c>
     </row>
-    <row r="242" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
         <v>2010</v>
       </c>
       <c r="B242" t="s">
         <v>19</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>154419547</v>
       </c>
     </row>
-    <row r="243" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
         <v>2010</v>
       </c>
       <c r="B243" t="s">
         <v>20</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>351123418</v>
       </c>
     </row>
-    <row r="244" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
         <v>2010</v>
       </c>
       <c r="B244" t="s">
         <v>21</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>85310285</v>
       </c>
     </row>
-    <row r="245" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
         <v>2010</v>
       </c>
       <c r="B245" t="s">
         <v>22</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>449858101</v>
       </c>
     </row>
-    <row r="246" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
         <v>2010</v>
       </c>
       <c r="B246" t="s">
         <v>23</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>1294695988</v>
       </c>
     </row>
-    <row r="247" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
         <v>2010</v>
       </c>
       <c r="B247" t="s">
         <v>24</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>225205255</v>
       </c>
     </row>
-    <row r="248" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
         <v>2010</v>
       </c>
       <c r="B248" t="s">
         <v>25</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>153726007</v>
       </c>
     </row>
-    <row r="249" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
         <v>2010</v>
       </c>
       <c r="B249" t="s">
         <v>26</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>241249164</v>
       </c>
     </row>
-    <row r="250" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
         <v>2010</v>
       </c>
       <c r="B250" t="s">
         <v>27</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>47270656</v>
       </c>
     </row>
-    <row r="251" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
         <v>2010</v>
       </c>
       <c r="B251" t="s">
         <v>28</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>56600955</v>
       </c>
     </row>
-    <row r="252" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
         <v>2010</v>
       </c>
       <c r="B252" t="s">
         <v>29</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>106770109</v>
       </c>
     </row>
-    <row r="253" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
         <v>2010</v>
       </c>
       <c r="B253" t="s">
         <v>30</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>144174102</v>
       </c>
     </row>
-    <row r="254" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
         <v>2011</v>
       </c>
       <c r="B254" t="s">
         <v>3</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>4376382000</v>
       </c>
     </row>
-    <row r="255" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
         <v>2011</v>
       </c>
       <c r="B255" t="s">
         <v>4</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>27574714</v>
       </c>
     </row>
-    <row r="256" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
         <v>2011</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>8949434</v>
       </c>
     </row>
-    <row r="257" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
         <v>2011</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>70734401</v>
       </c>
     </row>
-    <row r="258" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
         <v>2011</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>7303719</v>
       </c>
     </row>
-    <row r="259" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
         <v>2011</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>98710736</v>
       </c>
     </row>
-    <row r="260" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
         <v>2011</v>
       </c>
       <c r="B260" t="s">
         <v>9</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>9409228</v>
       </c>
     </row>
-    <row r="261" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
         <v>2011</v>
       </c>
       <c r="B261" t="s">
         <v>10</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>18345688</v>
       </c>
     </row>
-    <row r="262" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
         <v>2011</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>52143535</v>
       </c>
     </row>
-    <row r="263" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
         <v>2011</v>
       </c>
       <c r="B263" t="s">
         <v>12</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>25941362</v>
       </c>
     </row>
-    <row r="264" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
         <v>2011</v>
       </c>
       <c r="B264" t="s">
         <v>13</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>89695828</v>
       </c>
     </row>
-    <row r="265" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
         <v>2011</v>
       </c>
       <c r="B265" t="s">
         <v>14</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>40992925</v>
       </c>
     </row>
-    <row r="266" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
         <v>2011</v>
       </c>
       <c r="B266" t="s">
         <v>15</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>37109137</v>
       </c>
     </row>
-    <row r="267" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
         <v>2011</v>
       </c>
       <c r="B267" t="s">
         <v>16</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>110161559</v>
       </c>
     </row>
-    <row r="268" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
         <v>2011</v>
       </c>
       <c r="B268" t="s">
         <v>17</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>31657321</v>
       </c>
     </row>
-    <row r="269" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
         <v>2011</v>
       </c>
       <c r="B269" t="s">
         <v>18</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>29108272</v>
       </c>
     </row>
-    <row r="270" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
         <v>2011</v>
       </c>
       <c r="B270" t="s">
         <v>19</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>166602817</v>
       </c>
     </row>
-    <row r="271" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
         <v>2011</v>
       </c>
       <c r="B271" t="s">
         <v>20</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>400124687</v>
       </c>
     </row>
-    <row r="272" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
         <v>2011</v>
       </c>
       <c r="B272" t="s">
         <v>21</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>105976222</v>
       </c>
     </row>
-    <row r="273" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
         <v>2011</v>
       </c>
       <c r="B273" t="s">
         <v>22</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>512767905</v>
       </c>
     </row>
-    <row r="274" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A274">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
         <v>2011</v>
       </c>
       <c r="B274" t="s">
         <v>23</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>1436672709</v>
       </c>
     </row>
-    <row r="275" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
         <v>2011</v>
       </c>
       <c r="B275" t="s">
         <v>24</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>257122269</v>
       </c>
     </row>
-    <row r="276" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
         <v>2011</v>
       </c>
       <c r="B276" t="s">
         <v>25</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>174068322</v>
       </c>
     </row>
-    <row r="277" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
         <v>2011</v>
       </c>
       <c r="B277" t="s">
         <v>26</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>265056416</v>
       </c>
     </row>
-    <row r="278" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
         <v>2011</v>
       </c>
       <c r="B278" t="s">
         <v>27</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>55133162</v>
       </c>
     </row>
-    <row r="279" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
         <v>2011</v>
       </c>
       <c r="B279" t="s">
         <v>28</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>69153957</v>
       </c>
     </row>
-    <row r="280" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
         <v>2011</v>
       </c>
       <c r="B280" t="s">
         <v>29</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>121296721</v>
       </c>
     </row>
-    <row r="281" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
         <v>2011</v>
       </c>
       <c r="B281" t="s">
         <v>30</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>154568954</v>
       </c>
     </row>
-    <row r="282" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A282">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
         <v>2012</v>
       </c>
       <c r="B282" t="s">
         <v>3</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>4814760000</v>
       </c>
     </row>
-    <row r="283" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
         <v>2012</v>
       </c>
       <c r="B283" t="s">
         <v>4</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>30112720</v>
       </c>
     </row>
-    <row r="284" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
         <v>2012</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>10137925</v>
       </c>
     </row>
-    <row r="285" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
         <v>2012</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>72242701</v>
       </c>
     </row>
-    <row r="286" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A286">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
         <v>2012</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>7711467</v>
       </c>
     </row>
-    <row r="287" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A287">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
         <v>2012</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>107080881</v>
       </c>
     </row>
-    <row r="288" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
         <v>2012</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>11130868</v>
       </c>
     </row>
-    <row r="289" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A289">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
         <v>2012</v>
       </c>
       <c r="B289" t="s">
         <v>10</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>20684430</v>
       </c>
     </row>
-    <row r="290" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A290">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
         <v>2012</v>
       </c>
       <c r="B290" t="s">
         <v>11</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>60490109</v>
       </c>
     </row>
-    <row r="291" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A291">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
         <v>2012</v>
       </c>
       <c r="B291" t="s">
         <v>12</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>28637685</v>
       </c>
     </row>
-    <row r="292" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A292">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
         <v>2012</v>
       </c>
       <c r="B292" t="s">
         <v>13</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>96973753</v>
       </c>
     </row>
-    <row r="293" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A293">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
         <v>2012</v>
       </c>
       <c r="B293" t="s">
         <v>14</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>46412208</v>
       </c>
     </row>
-    <row r="294" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A294">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
         <v>2012</v>
       </c>
       <c r="B294" t="s">
         <v>15</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>42488349</v>
       </c>
     </row>
-    <row r="295" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A295">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
         <v>2012</v>
       </c>
       <c r="B295" t="s">
         <v>16</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>127989043</v>
       </c>
     </row>
-    <row r="296" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
         <v>2012</v>
       </c>
       <c r="B296" t="s">
         <v>17</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="1">
         <v>34650397</v>
       </c>
     </row>
-    <row r="297" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A297">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
         <v>2012</v>
       </c>
       <c r="B297" t="s">
         <v>18</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>32853181</v>
       </c>
     </row>
-    <row r="298" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
         <v>2012</v>
       </c>
       <c r="B298" t="s">
         <v>19</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>182572530</v>
       </c>
     </row>
-    <row r="299" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
         <v>2012</v>
       </c>
       <c r="B299" t="s">
         <v>20</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="1">
         <v>442282830</v>
       </c>
     </row>
-    <row r="300" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
         <v>2012</v>
       </c>
       <c r="B300" t="s">
         <v>21</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="1">
         <v>116850581</v>
       </c>
     </row>
-    <row r="301" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A301">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
         <v>2012</v>
       </c>
       <c r="B301" t="s">
         <v>22</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>574884973</v>
       </c>
     </row>
-    <row r="302" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
         <v>2012</v>
       </c>
       <c r="B302" t="s">
         <v>23</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>1559033444</v>
       </c>
     </row>
-    <row r="303" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A303">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
         <v>2012</v>
       </c>
       <c r="B303" t="s">
         <v>24</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>285620202</v>
       </c>
     </row>
-    <row r="304" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A304">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
         <v>2012</v>
       </c>
       <c r="B304" t="s">
         <v>25</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>191794652</v>
       </c>
     </row>
-    <row r="305" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A305">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
         <v>2012</v>
       </c>
       <c r="B305" t="s">
         <v>26</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="1">
         <v>287587019</v>
       </c>
     </row>
-    <row r="306" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
         <v>2012</v>
       </c>
       <c r="B306" t="s">
         <v>27</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="1">
         <v>62013201</v>
       </c>
     </row>
-    <row r="307" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
         <v>2012</v>
       </c>
       <c r="B307" t="s">
         <v>28</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="1">
         <v>79665691</v>
       </c>
     </row>
-    <row r="308" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A308">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
         <v>2012</v>
       </c>
       <c r="B308" t="s">
         <v>29</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>138757825</v>
       </c>
     </row>
-    <row r="309" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
         <v>2012</v>
       </c>
       <c r="B309" t="s">
         <v>30</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="1">
         <v>164101336</v>
       </c>
     </row>
-    <row r="310" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A310">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
         <v>2013</v>
       </c>
       <c r="B310" t="s">
         <v>3</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>5331618957</v>
       </c>
     </row>
-    <row r="311" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
         <v>2013</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="1">
         <v>31121413</v>
       </c>
     </row>
-    <row r="312" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A312">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
         <v>2013</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="1">
         <v>11473930</v>
       </c>
     </row>
-    <row r="313" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A313">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
         <v>2013</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="1">
         <v>83051233</v>
       </c>
     </row>
-    <row r="314" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A314">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
         <v>2013</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="1">
         <v>9010725</v>
       </c>
     </row>
-    <row r="315" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A315">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
         <v>2013</v>
       </c>
       <c r="B315" t="s">
         <v>8</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="1">
         <v>121224847</v>
       </c>
     </row>
-    <row r="316" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A316">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
         <v>2013</v>
       </c>
       <c r="B316" t="s">
         <v>9</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>12763486</v>
       </c>
     </row>
-    <row r="317" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
         <v>2013</v>
       </c>
       <c r="B317" t="s">
         <v>10</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>23796656</v>
       </c>
     </row>
-    <row r="318" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
         <v>2013</v>
       </c>
       <c r="B318" t="s">
         <v>11</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>67694845</v>
       </c>
     </row>
-    <row r="319" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
         <v>2013</v>
       </c>
       <c r="B319" t="s">
         <v>12</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="1">
         <v>31283593</v>
       </c>
     </row>
-    <row r="320" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
         <v>2013</v>
       </c>
       <c r="B320" t="s">
         <v>13</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>109036556</v>
       </c>
     </row>
-    <row r="321" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
         <v>2013</v>
       </c>
       <c r="B321" t="s">
         <v>14</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="1">
         <v>51518457</v>
       </c>
     </row>
-    <row r="322" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A322">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
         <v>2013</v>
       </c>
       <c r="B322" t="s">
         <v>15</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>46377299</v>
       </c>
     </row>
-    <row r="323" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A323">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
         <v>2013</v>
       </c>
       <c r="B323" t="s">
         <v>16</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>141150252</v>
       </c>
     </row>
-    <row r="324" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
         <v>2013</v>
       </c>
       <c r="B324" t="s">
         <v>17</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>37282529</v>
       </c>
     </row>
-    <row r="325" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
         <v>2013</v>
       </c>
       <c r="B325" t="s">
         <v>18</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>35335986</v>
       </c>
     </row>
-    <row r="326" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A326">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
         <v>2013</v>
       </c>
       <c r="B326" t="s">
         <v>19</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>204844274</v>
       </c>
     </row>
-    <row r="327" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A327">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
         <v>2013</v>
       </c>
       <c r="B327" t="s">
         <v>20</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>488004903</v>
       </c>
     </row>
-    <row r="328" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A328">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
         <v>2013</v>
       </c>
       <c r="B328" t="s">
         <v>21</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="1">
         <v>117274347</v>
       </c>
     </row>
-    <row r="329" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A329">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
         <v>2013</v>
       </c>
       <c r="B329" t="s">
         <v>22</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="1">
         <v>628226069</v>
       </c>
     </row>
-    <row r="330" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A330">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
         <v>2013</v>
       </c>
       <c r="B330" t="s">
         <v>23</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>1715238417</v>
       </c>
     </row>
-    <row r="331" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A331">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
         <v>2013</v>
       </c>
       <c r="B331" t="s">
         <v>24</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>333481152</v>
       </c>
     </row>
-    <row r="332" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
         <v>2013</v>
       </c>
       <c r="B332" t="s">
         <v>25</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>214512242</v>
       </c>
     </row>
-    <row r="333" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
         <v>2013</v>
       </c>
       <c r="B333" t="s">
         <v>26</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>332292726</v>
       </c>
     </row>
-    <row r="334" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A334">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
         <v>2013</v>
       </c>
       <c r="B334" t="s">
         <v>27</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>69203201</v>
       </c>
     </row>
-    <row r="335" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
         <v>2013</v>
       </c>
       <c r="B335" t="s">
         <v>28</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>89212919</v>
       </c>
     </row>
-    <row r="336" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
         <v>2013</v>
       </c>
       <c r="B336" t="s">
         <v>29</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>151300175</v>
       </c>
     </row>
-    <row r="337" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
         <v>2013</v>
       </c>
       <c r="B337" t="s">
         <v>30</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>175906726</v>
       </c>
     </row>
-    <row r="338" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A338">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
         <v>2014</v>
       </c>
       <c r="B338" t="s">
         <v>3</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="1">
         <v>5778952780</v>
       </c>
     </row>
-    <row r="339" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A339">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
         <v>2014</v>
       </c>
       <c r="B339" t="s">
         <v>4</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="1">
         <v>34030982</v>
       </c>
     </row>
-    <row r="340" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A340">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
         <v>2014</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>13458698</v>
       </c>
     </row>
-    <row r="341" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A341">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
         <v>2014</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>86668644</v>
       </c>
     </row>
-    <row r="342" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A342">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
         <v>2014</v>
       </c>
       <c r="B342" t="s">
         <v>7</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>9744122</v>
       </c>
     </row>
-    <row r="343" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A343">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
         <v>2014</v>
       </c>
       <c r="B343" t="s">
         <v>8</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>124584945</v>
       </c>
     </row>
-    <row r="344" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A344">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
         <v>2014</v>
       </c>
       <c r="B344" t="s">
         <v>9</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>13400284</v>
       </c>
     </row>
-    <row r="345" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A345">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
         <v>2014</v>
       </c>
       <c r="B345" t="s">
         <v>10</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>26189323</v>
       </c>
     </row>
-    <row r="346" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
         <v>2014</v>
       </c>
       <c r="B346" t="s">
         <v>11</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>76842028</v>
       </c>
     </row>
-    <row r="347" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
         <v>2014</v>
       </c>
       <c r="B347" t="s">
         <v>12</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="1">
         <v>37723497</v>
       </c>
     </row>
-    <row r="348" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A348">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
         <v>2014</v>
       </c>
       <c r="B348" t="s">
         <v>13</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>126054472</v>
       </c>
     </row>
-    <row r="349" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A349">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
         <v>2014</v>
       </c>
       <c r="B349" t="s">
         <v>14</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>54022584</v>
       </c>
     </row>
-    <row r="350" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
         <v>2014</v>
       </c>
       <c r="B350" t="s">
         <v>15</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>52936483</v>
       </c>
     </row>
-    <row r="351" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A351">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
         <v>2014</v>
       </c>
       <c r="B351" t="s">
         <v>16</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>155142648</v>
       </c>
     </row>
-    <row r="352" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A352">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
         <v>2014</v>
       </c>
       <c r="B352" t="s">
         <v>17</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>40974994</v>
       </c>
     </row>
-    <row r="353" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A353">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
         <v>2014</v>
       </c>
       <c r="B353" t="s">
         <v>18</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="1">
         <v>37472432</v>
       </c>
     </row>
-    <row r="354" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
         <v>2014</v>
       </c>
       <c r="B354" t="s">
         <v>19</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>223929966</v>
       </c>
     </row>
-    <row r="355" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A355">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
         <v>2014</v>
       </c>
       <c r="B355" t="s">
         <v>20</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>516633984</v>
       </c>
     </row>
-    <row r="356" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A356">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
         <v>2014</v>
       </c>
       <c r="B356" t="s">
         <v>21</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>128783781</v>
       </c>
     </row>
-    <row r="357" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A357">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
         <v>2014</v>
       </c>
       <c r="B357" t="s">
         <v>22</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>671076844</v>
       </c>
     </row>
-    <row r="358" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A358">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
         <v>2014</v>
       </c>
       <c r="B358" t="s">
         <v>23</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>1858196055</v>
       </c>
     </row>
-    <row r="359" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A359">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
         <v>2014</v>
       </c>
       <c r="B359" t="s">
         <v>24</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>348084191</v>
       </c>
     </row>
-    <row r="360" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
         <v>2014</v>
       </c>
       <c r="B360" t="s">
         <v>25</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>242553371</v>
       </c>
     </row>
-    <row r="361" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
         <v>2014</v>
       </c>
       <c r="B361" t="s">
         <v>26</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>357816424</v>
       </c>
     </row>
-    <row r="362" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
         <v>2014</v>
       </c>
       <c r="B362" t="s">
         <v>27</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>78950133</v>
       </c>
     </row>
-    <row r="363" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
         <v>2014</v>
       </c>
       <c r="B363" t="s">
         <v>28</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>101234520</v>
       </c>
     </row>
-    <row r="364" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A364">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
         <v>2014</v>
       </c>
       <c r="B364" t="s">
         <v>29</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="1">
         <v>165015318</v>
       </c>
     </row>
-    <row r="365" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
         <v>2014</v>
       </c>
       <c r="B365" t="s">
         <v>30</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>197432059</v>
       </c>
     </row>
-    <row r="366" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A366">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
         <v>2015</v>
       </c>
       <c r="B366" t="s">
         <v>3</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>5995787000</v>
       </c>
     </row>
-    <row r="367" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A367">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
         <v>2015</v>
       </c>
       <c r="B367" t="s">
         <v>4</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>36563333</v>
       </c>
     </row>
-    <row r="368" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A368">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
         <v>2015</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>13622802</v>
       </c>
     </row>
-    <row r="369" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A369">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
         <v>2015</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>86568184</v>
       </c>
     </row>
-    <row r="370" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A370">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
         <v>2015</v>
       </c>
       <c r="B370" t="s">
         <v>7</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>10242905</v>
       </c>
     </row>
-    <row r="371" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A371">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
         <v>2015</v>
       </c>
       <c r="B371" t="s">
         <v>8</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>130899505</v>
       </c>
     </row>
-    <row r="372" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A372">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
         <v>2015</v>
       </c>
       <c r="B372" t="s">
         <v>9</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>13861293</v>
       </c>
     </row>
-    <row r="373" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A373">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
         <v>2015</v>
       </c>
       <c r="B373" t="s">
         <v>10</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>28930291</v>
       </c>
     </row>
-    <row r="374" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A374">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
         <v>2015</v>
       </c>
       <c r="B374" t="s">
         <v>11</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>78475994</v>
       </c>
     </row>
-    <row r="375" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A375">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
         <v>2015</v>
       </c>
       <c r="B375" t="s">
         <v>12</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>39149686</v>
       </c>
     </row>
-    <row r="376" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A376">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
         <v>2015</v>
       </c>
       <c r="B376" t="s">
         <v>13</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="1">
         <v>130629849</v>
       </c>
     </row>
-    <row r="377" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A377">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
         <v>2015</v>
       </c>
       <c r="B377" t="s">
         <v>14</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="1">
         <v>57250867</v>
       </c>
     </row>
-    <row r="378" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A378">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
         <v>2015</v>
       </c>
       <c r="B378" t="s">
         <v>15</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>56141890</v>
       </c>
     </row>
-    <row r="379" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A379">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
         <v>2015</v>
       </c>
       <c r="B379" t="s">
         <v>16</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="1">
         <v>156963668</v>
       </c>
     </row>
-    <row r="380" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A380">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
         <v>2015</v>
       </c>
       <c r="B380" t="s">
         <v>17</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="1">
         <v>46367211</v>
       </c>
     </row>
-    <row r="381" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A381">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
         <v>2015</v>
       </c>
       <c r="B381" t="s">
         <v>18</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>38556530</v>
       </c>
     </row>
-    <row r="382" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
         <v>2015</v>
       </c>
       <c r="B382" t="s">
         <v>19</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>245043690</v>
       </c>
     </row>
-    <row r="383" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A383">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
         <v>2015</v>
       </c>
       <c r="B383" t="s">
         <v>20</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="1">
         <v>519331213</v>
       </c>
     </row>
-    <row r="384" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A384">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
         <v>2015</v>
       </c>
       <c r="B384" t="s">
         <v>21</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="1">
         <v>120365980</v>
       </c>
     </row>
-    <row r="385" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A385">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
         <v>2015</v>
       </c>
       <c r="B385" t="s">
         <v>22</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="1">
         <v>659138952</v>
       </c>
     </row>
-    <row r="386" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A386">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
         <v>2015</v>
       </c>
       <c r="B386" t="s">
         <v>23</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="1">
         <v>1939901907</v>
       </c>
     </row>
-    <row r="387" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A387">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
         <v>2015</v>
       </c>
       <c r="B387" t="s">
         <v>24</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="1">
         <v>376962822</v>
       </c>
     </row>
-    <row r="388" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A388">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
         <v>2015</v>
       </c>
       <c r="B388" t="s">
         <v>25</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="1">
         <v>249079642</v>
       </c>
     </row>
-    <row r="389" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A389">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
         <v>2015</v>
       </c>
       <c r="B389" t="s">
         <v>26</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="1">
         <v>381992601</v>
       </c>
     </row>
-    <row r="390" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A390">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
         <v>2015</v>
       </c>
       <c r="B390" t="s">
         <v>27</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="1">
         <v>83082555</v>
       </c>
     </row>
-    <row r="391" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A391">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
         <v>2015</v>
       </c>
       <c r="B391" t="s">
         <v>28</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="1">
         <v>107418319</v>
       </c>
     </row>
-    <row r="392" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A392">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
         <v>2015</v>
       </c>
       <c r="B392" t="s">
         <v>29</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="1">
         <v>173632450</v>
       </c>
     </row>
-    <row r="393" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A393">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
         <v>2015</v>
       </c>
       <c r="B393" t="s">
         <v>30</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="1">
         <v>215612863</v>
       </c>
     </row>
-    <row r="394" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A394">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
         <v>2016</v>
       </c>
       <c r="B394" t="s">
         <v>3</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="1">
         <v>6269328000</v>
       </c>
     </row>
-    <row r="395" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A395">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
         <v>2016</v>
       </c>
       <c r="B395" t="s">
         <v>4</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="1">
         <v>39460359</v>
       </c>
     </row>
-    <row r="396" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A396">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
         <v>2016</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="1">
         <v>13754240</v>
       </c>
     </row>
-    <row r="397" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A397">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
         <v>2016</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="1">
         <v>89039782</v>
       </c>
     </row>
-    <row r="398" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A398">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
         <v>2016</v>
       </c>
       <c r="B398" t="s">
         <v>7</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="1">
         <v>11013237</v>
       </c>
     </row>
-    <row r="399" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A399">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
         <v>2016</v>
       </c>
       <c r="B399" t="s">
         <v>8</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="1">
         <v>138107514</v>
       </c>
     </row>
-    <row r="400" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A400">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
         <v>2016</v>
       </c>
       <c r="B400" t="s">
         <v>9</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="1">
         <v>14342135</v>
       </c>
     </row>
-    <row r="401" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A401">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
         <v>2016</v>
       </c>
       <c r="B401" t="s">
         <v>10</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="1">
         <v>31584816</v>
       </c>
     </row>
-    <row r="402" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A402">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
         <v>2016</v>
       </c>
       <c r="B402" t="s">
         <v>11</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="1">
         <v>85310038</v>
       </c>
     </row>
-    <row r="403" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A403">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
         <v>2016</v>
       </c>
       <c r="B403" t="s">
         <v>12</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="1">
         <v>41416937</v>
       </c>
     </row>
-    <row r="404" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A404">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
         <v>2016</v>
       </c>
       <c r="B404" t="s">
         <v>13</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="1">
         <v>138422521</v>
       </c>
     </row>
-    <row r="405" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A405">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
         <v>2016</v>
       </c>
       <c r="B405" t="s">
         <v>14</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="1">
         <v>59677389</v>
       </c>
     </row>
-    <row r="406" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A406">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
         <v>2016</v>
       </c>
       <c r="B406" t="s">
         <v>15</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="1">
         <v>59104781</v>
       </c>
     </row>
-    <row r="407" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A407">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
         <v>2016</v>
       </c>
       <c r="B407" t="s">
         <v>16</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="1">
         <v>167345031</v>
       </c>
     </row>
-    <row r="408" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A408">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
         <v>2016</v>
       </c>
       <c r="B408" t="s">
         <v>17</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="1">
         <v>49468741</v>
       </c>
     </row>
-    <row r="409" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A409">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
         <v>2016</v>
       </c>
       <c r="B409" t="s">
         <v>18</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="1">
         <v>38877438</v>
       </c>
     </row>
-    <row r="410" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A410">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
         <v>2016</v>
       </c>
       <c r="B410" t="s">
         <v>19</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="1">
         <v>258738970</v>
       </c>
     </row>
-    <row r="411" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A411">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
         <v>2016</v>
       </c>
       <c r="B411" t="s">
         <v>20</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="1">
         <v>544810468</v>
       </c>
     </row>
-    <row r="412" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A412">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
         <v>2016</v>
       </c>
       <c r="B412" t="s">
         <v>21</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="1">
         <v>109264423</v>
       </c>
     </row>
-    <row r="413" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A413">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
         <v>2016</v>
       </c>
       <c r="B413" t="s">
         <v>22</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="1">
         <v>640401206</v>
       </c>
     </row>
-    <row r="414" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A414">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
         <v>2016</v>
       </c>
       <c r="B414" t="s">
         <v>23</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="1">
         <v>2038757382</v>
       </c>
     </row>
-    <row r="415" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A415">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
         <v>2016</v>
       </c>
       <c r="B415" t="s">
         <v>24</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="1">
         <v>401814164</v>
       </c>
     </row>
-    <row r="416" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A416">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
         <v>2016</v>
       </c>
       <c r="B416" t="s">
         <v>25</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="1">
         <v>256754669</v>
       </c>
     </row>
-    <row r="417" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A417">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
         <v>2016</v>
       </c>
       <c r="B417" t="s">
         <v>26</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="1">
         <v>408789528</v>
       </c>
     </row>
-    <row r="418" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A418">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
         <v>2016</v>
       </c>
       <c r="B418" t="s">
         <v>27</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="1">
         <v>91892285</v>
       </c>
     </row>
-    <row r="419" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A419">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
         <v>2016</v>
       </c>
       <c r="B419" t="s">
         <v>28</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="1">
         <v>123880296</v>
       </c>
     </row>
-    <row r="420" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A420">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
         <v>2016</v>
       </c>
       <c r="B420" t="s">
         <v>29</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="1">
         <v>181759604</v>
       </c>
     </row>
-    <row r="421" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A421">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
         <v>2016</v>
       </c>
       <c r="B421" t="s">
         <v>30</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="1">
         <v>235540045</v>
       </c>
     </row>
-    <row r="422" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A422">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
         <v>2017</v>
       </c>
       <c r="B422" t="s">
         <v>3</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="1">
         <v>6585479000</v>
       </c>
     </row>
-    <row r="423" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A423">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
         <v>2017</v>
       </c>
       <c r="B423" t="s">
         <v>4</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="1">
         <v>43516147</v>
       </c>
     </row>
-    <row r="424" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A424">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
         <v>2017</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="1">
         <v>14272941</v>
       </c>
     </row>
-    <row r="425" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A425">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
         <v>2017</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="1">
         <v>93240191</v>
       </c>
     </row>
-    <row r="426" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A426">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
         <v>2017</v>
       </c>
       <c r="B426" t="s">
         <v>7</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="1">
         <v>12104709</v>
       </c>
     </row>
-    <row r="427" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A427">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
         <v>2017</v>
       </c>
       <c r="B427" t="s">
         <v>8</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="1">
         <v>155232404</v>
       </c>
     </row>
-    <row r="428" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A428">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
         <v>2017</v>
       </c>
       <c r="B428" t="s">
         <v>9</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="1">
         <v>15481908</v>
       </c>
     </row>
-    <row r="429" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A429">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
         <v>2017</v>
       </c>
       <c r="B429" t="s">
         <v>10</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="1">
         <v>34108132</v>
       </c>
     </row>
-    <row r="430" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A430">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
         <v>2017</v>
       </c>
       <c r="B430" t="s">
         <v>11</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="1">
         <v>89542757</v>
       </c>
     </row>
-    <row r="431" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A431">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
         <v>2017</v>
       </c>
       <c r="B431" t="s">
         <v>12</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="1">
         <v>45365541</v>
       </c>
     </row>
-    <row r="432" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A432">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
         <v>2017</v>
       </c>
       <c r="B432" t="s">
         <v>13</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="1">
         <v>147921534</v>
       </c>
     </row>
-    <row r="433" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A433">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
         <v>2017</v>
       </c>
       <c r="B433" t="s">
         <v>14</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="1">
         <v>64305995</v>
       </c>
     </row>
-    <row r="434" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A434">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
         <v>2017</v>
       </c>
       <c r="B434" t="s">
         <v>15</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="1">
         <v>62396776</v>
       </c>
     </row>
-    <row r="435" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A435">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
         <v>2017</v>
       </c>
       <c r="B435" t="s">
         <v>16</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="1">
         <v>181609501</v>
       </c>
     </row>
-    <row r="436" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A436">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
         <v>2017</v>
       </c>
       <c r="B436" t="s">
         <v>17</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="1">
         <v>52851067</v>
       </c>
     </row>
-    <row r="437" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A437">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
         <v>2017</v>
       </c>
       <c r="B437" t="s">
         <v>18</v>
       </c>
-      <c r="C437">
+      <c r="C437" s="1">
         <v>40711486</v>
       </c>
     </row>
-    <row r="438" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A438">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
         <v>2017</v>
       </c>
       <c r="B438" t="s">
         <v>19</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="1">
         <v>268724090</v>
       </c>
     </row>
-    <row r="439" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A439">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
         <v>2017</v>
       </c>
       <c r="B439" t="s">
         <v>20</v>
       </c>
-      <c r="C439">
+      <c r="C439" s="1">
         <v>576375545</v>
       </c>
     </row>
-    <row r="440" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A440">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
         <v>2017</v>
       </c>
       <c r="B440" t="s">
         <v>21</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="1">
         <v>113399937</v>
       </c>
     </row>
-    <row r="441" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A441">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
         <v>2017</v>
       </c>
       <c r="B441" t="s">
         <v>22</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="1">
         <v>671605668</v>
       </c>
     </row>
-    <row r="442" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A442">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
         <v>2017</v>
       </c>
       <c r="B442" t="s">
         <v>23</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="1">
         <v>2120761635</v>
       </c>
     </row>
-    <row r="443" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A443">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
         <v>2017</v>
       </c>
       <c r="B443" t="s">
         <v>24</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="1">
         <v>421497870</v>
       </c>
     </row>
-    <row r="444" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A444">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
         <v>2017</v>
       </c>
       <c r="B444" t="s">
         <v>25</v>
       </c>
-      <c r="C444">
+      <c r="C444" s="1">
         <v>277270237</v>
       </c>
     </row>
-    <row r="445" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A445">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
         <v>2017</v>
       </c>
       <c r="B445" t="s">
         <v>26</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="1">
         <v>423270047</v>
       </c>
     </row>
-    <row r="446" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A446">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
         <v>2017</v>
       </c>
       <c r="B446" t="s">
         <v>27</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="1">
         <v>96396434</v>
       </c>
     </row>
-    <row r="447" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A447">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
         <v>2017</v>
       </c>
       <c r="B447" t="s">
         <v>28</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="1">
         <v>126845898</v>
       </c>
     </row>
-    <row r="448" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A448">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
         <v>2017</v>
       </c>
       <c r="B448" t="s">
         <v>29</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="1">
         <v>191948301</v>
       </c>
     </row>
-    <row r="449" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A449">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
         <v>2017</v>
       </c>
       <c r="B449" t="s">
         <v>30</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="1">
         <v>244722249</v>
       </c>
     </row>
-    <row r="450" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A450">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
         <v>2018</v>
       </c>
       <c r="B450" t="s">
         <v>3</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="1">
         <v>7004141000</v>
       </c>
     </row>
-    <row r="451" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A451">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
         <v>2018</v>
       </c>
       <c r="B451" t="s">
         <v>4</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="1">
         <v>44913978</v>
       </c>
     </row>
-    <row r="452" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A452">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
         <v>2018</v>
       </c>
       <c r="B452" t="s">
         <v>5</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="1">
         <v>15331123</v>
       </c>
     </row>
-    <row r="453" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A453">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
         <v>2018</v>
       </c>
       <c r="B453" t="s">
         <v>6</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="1">
         <v>100109235</v>
       </c>
     </row>
-    <row r="454" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A454">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
         <v>2018</v>
       </c>
       <c r="B454" t="s">
         <v>7</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="1">
         <v>13369988</v>
       </c>
     </row>
-    <row r="455" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A455">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
         <v>2018</v>
       </c>
       <c r="B455" t="s">
         <v>8</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="1">
         <v>161349602</v>
       </c>
     </row>
-    <row r="456" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A456">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
         <v>2018</v>
       </c>
       <c r="B456" t="s">
         <v>9</v>
       </c>
-      <c r="C456">
+      <c r="C456" s="1">
         <v>16795207</v>
       </c>
     </row>
-    <row r="457" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A457">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
         <v>2018</v>
       </c>
       <c r="B457" t="s">
         <v>10</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="1">
         <v>35666183</v>
       </c>
     </row>
-    <row r="458" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A458">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
         <v>2018</v>
       </c>
       <c r="B458" t="s">
         <v>11</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="1">
         <v>98179496</v>
       </c>
     </row>
-    <row r="459" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A459">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
         <v>2018</v>
       </c>
       <c r="B459" t="s">
         <v>12</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="1">
         <v>50378418</v>
       </c>
     </row>
-    <row r="460" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A460">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
         <v>2018</v>
       </c>
       <c r="B460" t="s">
         <v>13</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="1">
         <v>155903825</v>
       </c>
     </row>
-    <row r="461" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A461">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
         <v>2018</v>
       </c>
       <c r="B461" t="s">
         <v>14</v>
       </c>
-      <c r="C461">
+      <c r="C461" s="1">
         <v>66969562</v>
       </c>
     </row>
-    <row r="462" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A462">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
         <v>2018</v>
       </c>
       <c r="B462" t="s">
         <v>15</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="1">
         <v>64373595</v>
       </c>
     </row>
-    <row r="463" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A463">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
         <v>2018</v>
       </c>
       <c r="B463" t="s">
         <v>16</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="1">
         <v>186351975</v>
       </c>
     </row>
-    <row r="464" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A464">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
         <v>2018</v>
       </c>
       <c r="B464" t="s">
         <v>17</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="1">
         <v>54413047</v>
       </c>
     </row>
     <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="2">
         <v>2018</v>
       </c>
       <c r="B465" t="s">
         <v>18</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="1">
         <v>42017981</v>
       </c>
-      <c r="D465"/>
     </row>
     <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="2">
         <v>2018</v>
       </c>
       <c r="B466" t="s">
         <v>19</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="1">
         <v>286239541</v>
       </c>
-      <c r="D466"/>
     </row>
     <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="2">
         <v>2018</v>
       </c>
       <c r="B467" t="s">
         <v>20</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="1">
         <v>614875820</v>
       </c>
-      <c r="D467"/>
     </row>
     <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="2">
         <v>2018</v>
       </c>
       <c r="B468" t="s">
         <v>21</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="1">
         <v>137020055</v>
       </c>
-      <c r="D468"/>
     </row>
     <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="2">
         <v>2018</v>
       </c>
       <c r="B469" t="s">
         <v>22</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="1">
         <v>758859047</v>
       </c>
-      <c r="D469"/>
     </row>
     <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="2">
         <v>2018</v>
       </c>
       <c r="B470" t="s">
         <v>23</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="1">
         <v>2210561949</v>
       </c>
-      <c r="D470"/>
     </row>
     <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="2">
         <v>2018</v>
       </c>
       <c r="B471" t="s">
         <v>24</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="1">
         <v>440029403</v>
       </c>
-      <c r="D471"/>
     </row>
     <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="2">
         <v>2018</v>
       </c>
       <c r="B472" t="s">
         <v>25</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="1">
         <v>298227090</v>
       </c>
-      <c r="D472"/>
     </row>
     <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="2">
         <v>2018</v>
       </c>
       <c r="B473" t="s">
         <v>26</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="1">
         <v>457293958</v>
       </c>
-      <c r="D473"/>
     </row>
     <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="2">
         <v>2018</v>
       </c>
       <c r="B474" t="s">
         <v>27</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="1">
         <v>106969142</v>
       </c>
-      <c r="D474"/>
     </row>
     <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="2">
         <v>2018</v>
       </c>
       <c r="B475" t="s">
         <v>28</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="1">
         <v>137442853</v>
       </c>
-      <c r="D475"/>
     </row>
     <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="2">
         <v>2018</v>
       </c>
       <c r="B476" t="s">
         <v>29</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="1">
         <v>195681724</v>
       </c>
-      <c r="D476"/>
     </row>
     <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="2">
         <v>2018</v>
       </c>
       <c r="B477" t="s">
         <v>30</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="1">
         <v>254817205</v>
       </c>
-      <c r="D477"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="3">
+      <c r="A478" s="2">
         <v>2019</v>
       </c>
       <c r="B478" t="s">
         <v>23</v>
       </c>
-      <c r="C478" s="8">
+      <c r="C478" s="1">
         <v>2348338000</v>
       </c>
-      <c r="D478" s="5">
-        <f>C478/$C$505</f>
+      <c r="D478" s="3">
         <v>0.31780976680478396</v>
       </c>
-      <c r="E478" t="s">
+      <c r="E478" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F478" s="6">
-        <f>C478</f>
+      <c r="F478" s="1">
         <v>2348338000</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="3">
+      <c r="A479" s="2">
         <v>2019</v>
       </c>
       <c r="B479" t="s">
         <v>22</v>
       </c>
-      <c r="C479" s="8">
+      <c r="C479" s="1">
         <v>779927917</v>
       </c>
-      <c r="D479" s="5">
-        <f t="shared" ref="D479:D505" si="0">C479/$C$505</f>
+      <c r="D479" s="3">
         <v>0.10555069560953785</v>
       </c>
-      <c r="E479" t="s">
+      <c r="E479" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F479" s="6">
-        <f t="shared" ref="F479:F504" si="1">C479</f>
+      <c r="F479" s="1">
         <v>779927917</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="3">
+      <c r="A480" s="2">
         <v>2019</v>
       </c>
       <c r="B480" t="s">
         <v>20</v>
       </c>
-      <c r="C480" s="8">
+      <c r="C480" s="1">
         <v>651872684</v>
       </c>
-      <c r="D480" s="5">
-        <f t="shared" si="0"/>
+      <c r="D480" s="3">
         <v>8.8220480053743805E-2</v>
       </c>
-      <c r="E480" t="s">
+      <c r="E480" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F480" s="6">
-        <f t="shared" si="1"/>
+      <c r="F480" s="1">
         <v>651872684</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="3">
+      <c r="A481" s="2">
         <v>2019</v>
       </c>
       <c r="B481" t="s">
         <v>26</v>
       </c>
-      <c r="C481" s="8">
+      <c r="C481" s="1">
         <v>482464177</v>
       </c>
-      <c r="D481" s="5">
-        <f t="shared" si="0"/>
+      <c r="D481" s="3">
         <v>6.5293764178764729E-2</v>
       </c>
-      <c r="E481" t="s">
-        <v>37</v>
-      </c>
-      <c r="F481" s="6">
-        <f t="shared" si="1"/>
+      <c r="E481" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F481" s="1">
         <v>482464177</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="3">
+      <c r="A482" s="2">
         <v>2019</v>
       </c>
       <c r="B482" t="s">
         <v>24</v>
       </c>
-      <c r="C482" s="8">
+      <c r="C482" s="1">
         <v>466377036</v>
       </c>
-      <c r="D482" s="5">
-        <f t="shared" si="0"/>
+      <c r="D482" s="3">
         <v>6.3116628464159052E-2</v>
       </c>
-      <c r="E482" t="s">
-        <v>38</v>
-      </c>
-      <c r="F482" s="6">
-        <f t="shared" si="1"/>
+      <c r="E482" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F482" s="1">
         <v>466377036</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="3">
+      <c r="A483" s="2">
         <v>2019</v>
       </c>
       <c r="B483" t="s">
         <v>25</v>
       </c>
-      <c r="C483" s="8">
+      <c r="C483" s="1">
         <v>323263857</v>
       </c>
-      <c r="D483" s="5">
-        <f t="shared" si="0"/>
+      <c r="D483" s="3">
         <v>4.374856217869192E-2</v>
       </c>
-      <c r="E483" t="s">
-        <v>34</v>
-      </c>
-      <c r="F483" s="6">
-        <f t="shared" si="1"/>
+      <c r="E483" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F483" s="1">
         <v>323263857</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="3">
+      <c r="A484" s="2">
         <v>2019</v>
       </c>
       <c r="B484" t="s">
         <v>19</v>
       </c>
-      <c r="C484" s="8">
+      <c r="C484" s="1">
         <v>293240504</v>
       </c>
-      <c r="D484" s="5">
-        <f t="shared" si="0"/>
+      <c r="D484" s="3">
         <v>3.968538438417183E-2</v>
       </c>
-      <c r="E484" t="s">
-        <v>39</v>
-      </c>
-      <c r="F484" s="6">
-        <f t="shared" si="1"/>
+      <c r="E484" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F484" s="1">
         <v>293240504</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="3">
+      <c r="A485" s="2">
         <v>2019</v>
       </c>
       <c r="B485" t="s">
         <v>30</v>
       </c>
-      <c r="C485" s="8">
+      <c r="C485" s="1">
         <v>273613711</v>
       </c>
-      <c r="D485" s="5">
-        <f t="shared" si="0"/>
+      <c r="D485" s="3">
         <v>3.7029213719448201E-2</v>
       </c>
-      <c r="E485" t="s">
-        <v>35</v>
-      </c>
-      <c r="F485" s="6">
-        <f t="shared" si="1"/>
+      <c r="E485" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F485" s="1">
         <v>273613711</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="3">
+      <c r="A486" s="2">
         <v>2019</v>
       </c>
       <c r="B486" t="s">
         <v>29</v>
       </c>
-      <c r="C486" s="8">
+      <c r="C486" s="1">
         <v>208672492</v>
       </c>
-      <c r="D486" s="5">
-        <f t="shared" si="0"/>
+      <c r="D486" s="3">
         <v>2.8240464541770878E-2</v>
       </c>
-      <c r="E486" t="s">
-        <v>40</v>
-      </c>
-      <c r="F486" s="6">
-        <f t="shared" si="1"/>
+      <c r="E486" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F486" s="1">
         <v>208672492</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="3">
+      <c r="A487" s="2">
         <v>2019</v>
       </c>
       <c r="B487" t="s">
         <v>16</v>
       </c>
-      <c r="C487" s="8">
+      <c r="C487" s="1">
         <v>197853378</v>
       </c>
-      <c r="D487" s="5">
-        <f t="shared" si="0"/>
+      <c r="D487" s="3">
         <v>2.6776271526381113E-2</v>
       </c>
-      <c r="E487" t="s">
-        <v>41</v>
-      </c>
-      <c r="F487" s="6">
-        <f t="shared" si="1"/>
+      <c r="E487" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F487" s="1">
         <v>197853378</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="3">
+      <c r="A488" s="2">
         <v>2019</v>
       </c>
       <c r="B488" t="s">
         <v>8</v>
       </c>
-      <c r="C488" s="8">
+      <c r="C488" s="1">
         <v>178376984</v>
       </c>
-      <c r="D488" s="5">
-        <f t="shared" si="0"/>
+      <c r="D488" s="3">
         <v>2.414045494659656E-2</v>
       </c>
-      <c r="E488" t="s">
-        <v>42</v>
-      </c>
-      <c r="F488" s="6">
-        <f t="shared" si="1"/>
+      <c r="E488" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F488" s="1">
         <v>178376984</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="3">
+      <c r="A489" s="2">
         <v>2019</v>
       </c>
       <c r="B489" t="s">
         <v>13</v>
       </c>
-      <c r="C489" s="8">
+      <c r="C489" s="1">
         <v>163575327</v>
       </c>
-      <c r="D489" s="5">
-        <f t="shared" si="0"/>
+      <c r="D489" s="3">
         <v>2.2137288809739603E-2</v>
       </c>
-      <c r="E489" t="s">
-        <v>43</v>
-      </c>
-      <c r="F489" s="6">
-        <f t="shared" si="1"/>
+      <c r="E489" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F489" s="1">
         <v>163575327</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="3">
+      <c r="A490" s="2">
         <v>2019</v>
       </c>
       <c r="B490" t="s">
         <v>28</v>
       </c>
-      <c r="C490" s="8">
+      <c r="C490" s="1">
         <v>142122028</v>
       </c>
-      <c r="D490" s="5">
-        <f t="shared" si="0"/>
+      <c r="D490" s="3">
         <v>1.9233929943859432E-2</v>
       </c>
-      <c r="E490" t="s">
-        <v>44</v>
-      </c>
-      <c r="F490" s="6">
-        <f t="shared" si="1"/>
+      <c r="E490" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F490" s="1">
         <v>142122028</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="3">
+      <c r="A491" s="2">
         <v>2019</v>
       </c>
       <c r="B491" t="s">
         <v>21</v>
       </c>
-      <c r="C491" s="8">
+      <c r="C491" s="1">
         <v>137345595</v>
       </c>
-      <c r="D491" s="5">
-        <f t="shared" si="0"/>
+      <c r="D491" s="3">
         <v>1.8587516583479166E-2</v>
       </c>
-      <c r="E491" t="s">
-        <v>36</v>
-      </c>
-      <c r="F491" s="6">
-        <f t="shared" si="1"/>
+      <c r="E491" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F491" s="1">
         <v>137345595</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="3">
+      <c r="A492" s="2">
         <v>2019</v>
       </c>
       <c r="B492" t="s">
         <v>6</v>
       </c>
-      <c r="C492" s="8">
+      <c r="C492" s="1">
         <v>108181091</v>
       </c>
-      <c r="D492" s="5">
-        <f t="shared" si="0"/>
+      <c r="D492" s="3">
         <v>1.4640570183422109E-2</v>
       </c>
-      <c r="E492" t="s">
+      <c r="E492" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F492" s="6">
-        <f t="shared" si="1"/>
+      <c r="F492" s="1">
         <v>108181091</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="3">
+      <c r="A493" s="2">
         <v>2019</v>
       </c>
       <c r="B493" t="s">
         <v>27</v>
       </c>
-      <c r="C493" s="8">
+      <c r="C493" s="1">
         <v>106943246</v>
       </c>
-      <c r="D493" s="5">
-        <f t="shared" si="0"/>
+      <c r="D493" s="3">
         <v>1.4473047777878075E-2</v>
       </c>
-      <c r="E493" t="s">
+      <c r="E493" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F493" s="6">
-        <f t="shared" si="1"/>
+      <c r="F493" s="1">
         <v>106943246</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="3">
+      <c r="A494" s="2">
         <v>2019</v>
       </c>
       <c r="B494" t="s">
         <v>11</v>
       </c>
-      <c r="C494" s="8">
+      <c r="C494" s="1">
         <v>97339938</v>
       </c>
-      <c r="D494" s="5">
-        <f t="shared" si="0"/>
+      <c r="D494" s="3">
         <v>1.3173394543959228E-2</v>
       </c>
-      <c r="E494" t="s">
+      <c r="E494" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F494" s="6">
-        <f t="shared" si="1"/>
+      <c r="F494" s="1">
         <v>97339938</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="3">
+      <c r="A495" s="2">
         <v>2019</v>
       </c>
       <c r="B495" t="s">
         <v>14</v>
       </c>
-      <c r="C495" s="8">
+      <c r="C495" s="1">
         <v>71336780</v>
       </c>
-      <c r="D495" s="5">
-        <f t="shared" si="0"/>
+      <c r="D495" s="3">
         <v>9.6542854633379759E-3</v>
       </c>
-      <c r="E495" t="s">
+      <c r="E495" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F495" s="6">
-        <f t="shared" si="1"/>
+      <c r="F495" s="1">
         <v>71336780</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="3">
+      <c r="A496" s="2">
         <v>2019</v>
       </c>
       <c r="B496" t="s">
         <v>15</v>
       </c>
-      <c r="C496" s="8">
+      <c r="C496" s="1">
         <v>67986074</v>
       </c>
-      <c r="D496" s="5">
-        <f t="shared" si="0"/>
+      <c r="D496" s="3">
         <v>9.2008213144414413E-3</v>
       </c>
-      <c r="E496" t="s">
+      <c r="E496" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F496" s="6">
-        <f t="shared" si="1"/>
+      <c r="F496" s="1">
         <v>67986074</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="3">
+      <c r="A497" s="2">
         <v>2019</v>
       </c>
       <c r="B497" t="s">
         <v>17</v>
       </c>
-      <c r="C497" s="8">
+      <c r="C497" s="1">
         <v>58963729</v>
       </c>
-      <c r="D497" s="5">
-        <f t="shared" si="0"/>
+      <c r="D497" s="3">
         <v>7.9797920756852197E-3</v>
       </c>
-      <c r="E497" t="s">
+      <c r="E497" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F497" s="6">
-        <f t="shared" si="1"/>
+      <c r="F497" s="1">
         <v>58963729</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="3">
+      <c r="A498" s="2">
         <v>2019</v>
       </c>
       <c r="B498" t="s">
         <v>12</v>
       </c>
-      <c r="C498" s="8">
+      <c r="C498" s="1">
         <v>52780785</v>
       </c>
-      <c r="D498" s="5">
-        <f t="shared" si="0"/>
+      <c r="D498" s="3">
         <v>7.1430300802624832E-3</v>
       </c>
-      <c r="E498" t="s">
+      <c r="E498" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F498" s="6">
-        <f t="shared" si="1"/>
+      <c r="F498" s="1">
         <v>52780785</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="3">
+      <c r="A499" s="2">
         <v>2019</v>
       </c>
       <c r="B499" t="s">
         <v>4</v>
       </c>
-      <c r="C499" s="8">
+      <c r="C499" s="1">
         <v>47091336</v>
       </c>
-      <c r="D499" s="5">
-        <f t="shared" si="0"/>
+      <c r="D499" s="3">
         <v>6.3730546934409474E-3</v>
       </c>
-      <c r="E499" t="s">
+      <c r="E499" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F499" s="6">
-        <f t="shared" si="1"/>
+      <c r="F499" s="1">
         <v>47091336</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="3">
+      <c r="A500" s="2">
         <v>2019</v>
       </c>
       <c r="B500" t="s">
         <v>18</v>
       </c>
-      <c r="C500" s="8">
+      <c r="C500" s="1">
         <v>44689483</v>
       </c>
-      <c r="D500" s="5">
-        <f t="shared" si="0"/>
+      <c r="D500" s="3">
         <v>6.0480025323681498E-3</v>
       </c>
-      <c r="E500" t="s">
+      <c r="E500" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F500" s="6">
-        <f t="shared" si="1"/>
+      <c r="F500" s="1">
         <v>44689483</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="3">
+      <c r="A501" s="2">
         <v>2019</v>
       </c>
       <c r="B501" t="s">
         <v>10</v>
       </c>
-      <c r="C501" s="8">
+      <c r="C501" s="1">
         <v>39355941</v>
       </c>
-      <c r="D501" s="5">
-        <f t="shared" si="0"/>
+      <c r="D501" s="3">
         <v>5.3261934319475453E-3</v>
       </c>
-      <c r="E501" t="s">
+      <c r="E501" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F501" s="6">
-        <f t="shared" si="1"/>
+      <c r="F501" s="1">
         <v>39355941</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="3">
+      <c r="A502" s="2">
         <v>2019</v>
       </c>
       <c r="B502" t="s">
         <v>9</v>
       </c>
-      <c r="C502" s="8">
+      <c r="C502" s="1">
         <v>17496661</v>
       </c>
-      <c r="D502" s="5">
-        <f t="shared" si="0"/>
+      <c r="D502" s="3">
         <v>2.3678915693875232E-3</v>
       </c>
-      <c r="E502" t="s">
-        <v>57</v>
-      </c>
-      <c r="F502" s="6">
-        <f t="shared" si="1"/>
+      <c r="E502" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F502" s="1">
         <v>17496661</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="3">
+      <c r="A503" s="2">
         <v>2019</v>
       </c>
       <c r="B503" t="s">
         <v>5</v>
       </c>
-      <c r="C503" s="8">
+      <c r="C503" s="1">
         <v>15630017</v>
       </c>
-      <c r="D503" s="5">
-        <f t="shared" si="0"/>
+      <c r="D503" s="3">
         <v>2.115271335695632E-3</v>
       </c>
-      <c r="E503" t="s">
-        <v>55</v>
-      </c>
-      <c r="F503" s="6">
-        <f t="shared" si="1"/>
+      <c r="E503" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F503" s="1">
         <v>15630017</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="3">
+      <c r="A504" s="2">
         <v>2019</v>
       </c>
       <c r="B504" t="s">
         <v>7</v>
       </c>
-      <c r="C504" s="8">
+      <c r="C504" s="1">
         <v>14292227</v>
       </c>
-      <c r="D504" s="5">
-        <f t="shared" si="0"/>
+      <c r="D504" s="3">
         <v>1.9342229823777655E-3</v>
       </c>
-      <c r="E504" t="s">
-        <v>56</v>
-      </c>
-      <c r="F504" s="6">
-        <f t="shared" si="1"/>
+      <c r="E504" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F504" s="1">
         <v>14292227</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="3">
+      <c r="A505" s="2">
         <v>2019</v>
       </c>
       <c r="B505" t="s">
         <v>3</v>
       </c>
-      <c r="C505" s="8">
+      <c r="C505" s="1">
         <v>7389131000</v>
       </c>
-      <c r="D505" s="5">
-        <f t="shared" si="0"/>
+      <c r="D505" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A506">
+      <c r="A506" s="2">
         <v>2020</v>
       </c>
       <c r="B506" t="s">
         <v>3</v>
       </c>
-      <c r="C506">
+      <c r="C506" s="1">
         <v>7609597000</v>
       </c>
-      <c r="D506"/>
     </row>
     <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A507">
+      <c r="A507" s="2">
         <v>2020</v>
       </c>
       <c r="B507" t="s">
         <v>4</v>
       </c>
-      <c r="C507">
+      <c r="C507" s="1">
         <v>51598741</v>
       </c>
-      <c r="D507"/>
     </row>
     <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A508">
+      <c r="A508" s="2">
         <v>2020</v>
       </c>
       <c r="B508" t="s">
         <v>5</v>
       </c>
-      <c r="C508">
+      <c r="C508" s="1">
         <v>16476371</v>
       </c>
-      <c r="D508"/>
     </row>
     <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A509">
+      <c r="A509" s="2">
         <v>2020</v>
       </c>
       <c r="B509" t="s">
         <v>6</v>
       </c>
-      <c r="C509">
+      <c r="C509" s="1">
         <v>116019139</v>
       </c>
-      <c r="D509"/>
     </row>
     <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A510">
+      <c r="A510" s="2">
         <v>2020</v>
       </c>
       <c r="B510" t="s">
         <v>7</v>
       </c>
-      <c r="C510">
+      <c r="C510" s="1">
         <v>16024276</v>
       </c>
-      <c r="D510"/>
     </row>
     <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A511">
+      <c r="A511" s="2">
         <v>2020</v>
       </c>
       <c r="B511" t="s">
         <v>8</v>
       </c>
-      <c r="C511">
+      <c r="C511" s="1">
         <v>215935604</v>
       </c>
-      <c r="D511"/>
     </row>
     <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A512">
+      <c r="A512" s="2">
         <v>2020</v>
       </c>
       <c r="B512" t="s">
         <v>9</v>
       </c>
-      <c r="C512">
+      <c r="C512" s="1">
         <v>18469115</v>
       </c>
-      <c r="D512"/>
-    </row>
-    <row r="513" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A513">
+    </row>
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="2">
         <v>2020</v>
       </c>
       <c r="B513" t="s">
         <v>10</v>
       </c>
-      <c r="C513">
+      <c r="C513" s="1">
         <v>43649803</v>
       </c>
     </row>
-    <row r="514" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A514">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="2">
         <v>2020</v>
       </c>
       <c r="B514" t="s">
         <v>11</v>
       </c>
-      <c r="C514">
+      <c r="C514" s="1">
         <v>106915962</v>
       </c>
     </row>
-    <row r="515" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A515">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="2">
         <v>2020</v>
       </c>
       <c r="B515" t="s">
         <v>12</v>
       </c>
-      <c r="C515">
+      <c r="C515" s="1">
         <v>56391257</v>
       </c>
     </row>
-    <row r="516" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A516">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="2">
         <v>2020</v>
       </c>
       <c r="B516" t="s">
         <v>13</v>
       </c>
-      <c r="C516">
+      <c r="C516" s="1">
         <v>166914536</v>
       </c>
     </row>
-    <row r="517" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A517">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="2">
         <v>2020</v>
       </c>
       <c r="B517" t="s">
         <v>14</v>
       </c>
-      <c r="C517">
+      <c r="C517" s="1">
         <v>71577107</v>
       </c>
     </row>
-    <row r="518" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A518">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="2">
         <v>2020</v>
       </c>
       <c r="B518" t="s">
         <v>15</v>
       </c>
-      <c r="C518">
+      <c r="C518" s="1">
         <v>70292034</v>
       </c>
     </row>
-    <row r="519" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A519">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="2">
         <v>2020</v>
       </c>
       <c r="B519" t="s">
         <v>16</v>
       </c>
-      <c r="C519">
+      <c r="C519" s="1">
         <v>193307317</v>
       </c>
     </row>
-    <row r="520" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A520">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="2">
         <v>2020</v>
       </c>
       <c r="B520" t="s">
         <v>17</v>
       </c>
-      <c r="C520">
+      <c r="C520" s="1">
         <v>63202349</v>
       </c>
     </row>
-    <row r="521" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A521">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="2">
         <v>2020</v>
       </c>
       <c r="B521" t="s">
         <v>18</v>
       </c>
-      <c r="C521">
+      <c r="C521" s="1">
         <v>45409657</v>
       </c>
     </row>
-    <row r="522" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A522">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="2">
         <v>2020</v>
       </c>
       <c r="B522" t="s">
         <v>19</v>
       </c>
-      <c r="C522">
+      <c r="C522" s="1">
         <v>305320813</v>
       </c>
     </row>
-    <row r="523" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A523">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="2">
         <v>2020</v>
       </c>
       <c r="B523" t="s">
         <v>20</v>
       </c>
-      <c r="C523">
+      <c r="C523" s="1">
         <v>682786116</v>
       </c>
     </row>
-    <row r="524" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A524">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="2">
         <v>2020</v>
       </c>
       <c r="B524" t="s">
         <v>21</v>
       </c>
-      <c r="C524">
+      <c r="C524" s="1">
         <v>138445922</v>
       </c>
     </row>
-    <row r="525" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A525">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="2">
         <v>2020</v>
       </c>
       <c r="B525" t="s">
         <v>22</v>
       </c>
-      <c r="C525">
+      <c r="C525" s="1">
         <v>753823711</v>
       </c>
     </row>
-    <row r="526" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A526">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="2">
         <v>2020</v>
       </c>
       <c r="B526" t="s">
         <v>23</v>
       </c>
-      <c r="C526">
+      <c r="C526" s="1">
         <v>2377638980</v>
       </c>
     </row>
-    <row r="527" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A527">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="2">
         <v>2020</v>
       </c>
       <c r="B527" t="s">
         <v>24</v>
       </c>
-      <c r="C527">
+      <c r="C527" s="1">
         <v>487930594</v>
       </c>
     </row>
-    <row r="528" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A528">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="2">
         <v>2020</v>
       </c>
       <c r="B528" t="s">
         <v>25</v>
       </c>
-      <c r="C528">
+      <c r="C528" s="1">
         <v>349275016</v>
       </c>
     </row>
-    <row r="529" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A529">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="2">
         <v>2020</v>
       </c>
       <c r="B529" t="s">
         <v>26</v>
       </c>
-      <c r="C529">
+      <c r="C529" s="1">
         <v>470941846</v>
       </c>
     </row>
-    <row r="530" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A530">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="2">
         <v>2020</v>
       </c>
       <c r="B530" t="s">
         <v>27</v>
       </c>
-      <c r="C530">
+      <c r="C530" s="1">
         <v>122627726</v>
       </c>
     </row>
-    <row r="531" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A531">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="2">
         <v>2020</v>
       </c>
       <c r="B531" t="s">
         <v>28</v>
       </c>
-      <c r="C531">
+      <c r="C531" s="1">
         <v>178649564</v>
       </c>
     </row>
-    <row r="532" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A532">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="2">
         <v>2020</v>
       </c>
       <c r="B532" t="s">
         <v>29</v>
       </c>
-      <c r="C532">
+      <c r="C532" s="1">
         <v>224126112</v>
       </c>
     </row>
-    <row r="533" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A533">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="2">
         <v>2020</v>
       </c>
       <c r="B533" t="s">
         <v>30</v>
       </c>
-      <c r="C533">
+      <c r="C533" s="1">
         <v>265847334</v>
       </c>
     </row>
-    <row r="534" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A534">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="2">
         <v>2021</v>
       </c>
       <c r="B534" t="s">
         <v>3</v>
       </c>
-      <c r="C534">
+      <c r="C534" s="1">
         <v>9012142000</v>
       </c>
     </row>
-    <row r="535" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A535">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="2">
         <v>2021</v>
       </c>
       <c r="B535" t="s">
         <v>4</v>
       </c>
-      <c r="C535">
+      <c r="C535" s="1">
         <v>58170096</v>
       </c>
     </row>
-    <row r="536" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A536">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="2">
         <v>2021</v>
       </c>
       <c r="B536" t="s">
         <v>5</v>
       </c>
-      <c r="C536">
+      <c r="C536" s="1">
         <v>21374440</v>
       </c>
     </row>
-    <row r="537" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A537">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="2">
         <v>2021</v>
       </c>
       <c r="B537" t="s">
         <v>6</v>
       </c>
-      <c r="C537">
+      <c r="C537" s="1">
         <v>131531038</v>
       </c>
     </row>
-    <row r="538" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A538">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="2">
         <v>2021</v>
       </c>
       <c r="B538" t="s">
         <v>7</v>
       </c>
-      <c r="C538">
+      <c r="C538" s="1">
         <v>18202579</v>
       </c>
     </row>
-    <row r="539" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A539">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="2">
         <v>2021</v>
       </c>
       <c r="B539" t="s">
         <v>8</v>
       </c>
-      <c r="C539">
+      <c r="C539" s="1">
         <v>262904979</v>
       </c>
     </row>
-    <row r="540" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A540">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="2">
         <v>2021</v>
       </c>
       <c r="B540" t="s">
         <v>9</v>
       </c>
-      <c r="C540">
+      <c r="C540" s="1">
         <v>20099851</v>
       </c>
     </row>
-    <row r="541" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A541">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="2">
         <v>2021</v>
       </c>
       <c r="B541" t="s">
         <v>10</v>
       </c>
-      <c r="C541">
+      <c r="C541" s="1">
         <v>51780764</v>
       </c>
     </row>
-    <row r="542" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A542">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="2">
         <v>2021</v>
       </c>
       <c r="B542" t="s">
         <v>11</v>
       </c>
-      <c r="C542">
+      <c r="C542" s="1">
         <v>124980720</v>
       </c>
     </row>
-    <row r="543" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A543">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="2">
         <v>2021</v>
       </c>
       <c r="B543" t="s">
         <v>12</v>
       </c>
-      <c r="C543">
+      <c r="C543" s="1">
         <v>64028303</v>
       </c>
     </row>
-    <row r="544" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A544">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="2">
         <v>2021</v>
       </c>
       <c r="B544" t="s">
         <v>13</v>
       </c>
-      <c r="C544">
+      <c r="C544" s="1">
         <v>194884802</v>
       </c>
     </row>
-    <row r="545" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A545">
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="2">
         <v>2021</v>
       </c>
       <c r="B545" t="s">
         <v>14</v>
       </c>
-      <c r="C545">
+      <c r="C545" s="1">
         <v>80180733</v>
       </c>
     </row>
-    <row r="546" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A546">
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="2">
         <v>2021</v>
       </c>
       <c r="B546" t="s">
         <v>15</v>
       </c>
-      <c r="C546">
+      <c r="C546" s="1">
         <v>77470331</v>
       </c>
     </row>
-    <row r="547" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A547">
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="2">
         <v>2021</v>
       </c>
       <c r="B547" t="s">
         <v>16</v>
       </c>
-      <c r="C547">
+      <c r="C547" s="1">
         <v>220813522</v>
       </c>
     </row>
-    <row r="548" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A548">
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="2">
         <v>2021</v>
       </c>
       <c r="B548" t="s">
         <v>17</v>
       </c>
-      <c r="C548">
+      <c r="C548" s="1">
         <v>76265620</v>
       </c>
     </row>
-    <row r="549" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A549">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="2">
         <v>2021</v>
       </c>
       <c r="B549" t="s">
         <v>18</v>
       </c>
-      <c r="C549">
+      <c r="C549" s="1">
         <v>51861397</v>
       </c>
     </row>
-    <row r="550" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A550">
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="2">
         <v>2021</v>
       </c>
       <c r="B550" t="s">
         <v>19</v>
       </c>
-      <c r="C550">
+      <c r="C550" s="1">
         <v>352617852</v>
       </c>
     </row>
-    <row r="551" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A551">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="2">
         <v>2021</v>
       </c>
       <c r="B551" t="s">
         <v>20</v>
       </c>
-      <c r="C551">
+      <c r="C551" s="1">
         <v>857593214</v>
       </c>
     </row>
-    <row r="552" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A552">
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="2">
         <v>2021</v>
       </c>
       <c r="B552" t="s">
         <v>21</v>
       </c>
-      <c r="C552">
+      <c r="C552" s="1">
         <v>186336505</v>
       </c>
     </row>
-    <row r="553" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A553">
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="2">
         <v>2021</v>
       </c>
       <c r="B553" t="s">
         <v>22</v>
       </c>
-      <c r="C553">
+      <c r="C553" s="1">
         <v>949300770</v>
       </c>
     </row>
-    <row r="554" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A554">
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="2">
         <v>2021</v>
       </c>
       <c r="B554" t="s">
         <v>23</v>
       </c>
-      <c r="C554">
+      <c r="C554" s="1">
         <v>2719751231</v>
       </c>
     </row>
-    <row r="555" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A555">
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="2">
         <v>2021</v>
       </c>
       <c r="B555" t="s">
         <v>24</v>
       </c>
-      <c r="C555">
+      <c r="C555" s="1">
         <v>549973062</v>
       </c>
     </row>
-    <row r="556" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A556">
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="2">
         <v>2021</v>
       </c>
       <c r="B556" t="s">
         <v>25</v>
       </c>
-      <c r="C556">
+      <c r="C556" s="1">
         <v>428570889</v>
       </c>
     </row>
-    <row r="557" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A557">
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="2">
         <v>2021</v>
       </c>
       <c r="B557" t="s">
         <v>26</v>
       </c>
-      <c r="C557">
+      <c r="C557" s="1">
         <v>581283677</v>
       </c>
     </row>
-    <row r="558" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A558">
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="2">
         <v>2021</v>
       </c>
       <c r="B558" t="s">
         <v>27</v>
       </c>
-      <c r="C558">
+      <c r="C558" s="1">
         <v>142203766</v>
       </c>
     </row>
-    <row r="559" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A559">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="2">
         <v>2021</v>
       </c>
       <c r="B559" t="s">
         <v>28</v>
       </c>
-      <c r="C559">
+      <c r="C559" s="1">
         <v>233390203</v>
       </c>
     </row>
-    <row r="560" spans="1:3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A560">
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="2">
         <v>2021</v>
       </c>
       <c r="B560" t="s">
         <v>29</v>
       </c>
-      <c r="C560">
+      <c r="C560" s="1">
         <v>269627874</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A561">
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="2">
         <v>2021</v>
       </c>
       <c r="B561" t="s">
         <v>30</v>
       </c>
-      <c r="C561">
+      <c r="C561" s="1">
         <v>286943782</v>
       </c>
-      <c r="D561"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C561" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:F561" xr:uid="{B762B2A5-6653-4EF2-B957-F21E4881326D}">
     <filterColumn colId="0">
       <filters>
         <filter val="2019"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A478:C505">
-      <sortCondition ref="C1:C561"/>
-    </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B478:C504">
-    <sortCondition descending="1" ref="C504"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>